--- a/天然气/eta/JKM_合并数据.xlsx
+++ b/天然气/eta/JKM_合并数据.xlsx
@@ -457,7 +457,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>9.757845</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,7 +468,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>10.477077</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -475,7 +479,9 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>10.386927</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -485,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>9.906062</v>
+        <v>10.241062</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>10.20632</v>
+        <v>10.226288</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>10.171426</v>
+        <v>10.267956</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +524,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>11.155225</v>
+        <v>10.016159</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>11.28734</v>
+        <v>10.122732</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +546,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>10.97657</v>
+        <v>10.949634</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>11.233593</v>
+        <v>11.110831</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +568,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>11.614528</v>
+        <v>10.90927</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +579,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>11.046655</v>
+        <v>10.89216</v>
       </c>
     </row>
     <row r="14">
@@ -584,7 +590,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>11.545026</v>
+        <v>11.526046</v>
       </c>
     </row>
     <row r="15">
@@ -595,7 +601,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>11.578535</v>
+        <v>11.299139</v>
       </c>
     </row>
     <row r="16">
@@ -606,7 +612,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>11.210256</v>
+        <v>11.435121</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +623,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>11.304743</v>
+        <v>11.177748</v>
       </c>
     </row>
     <row r="18">
@@ -628,7 +634,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>11.304451</v>
+        <v>11.230041</v>
       </c>
     </row>
     <row r="19">
@@ -639,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>11.23372</v>
+        <v>11.22999</v>
       </c>
     </row>
     <row r="20">
